--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Денисюк Я.</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Постановка задач</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -527,13 +530,13 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
@@ -572,7 +575,9 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -592,7 +597,9 @@
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -672,7 +679,9 @@
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -774,7 +783,9 @@
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -814,7 +825,9 @@
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -834,7 +847,9 @@
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -894,7 +909,9 @@
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1034,7 +1051,9 @@
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Денисюк Я.</t>
   </si>
@@ -103,16 +103,13 @@
   </si>
   <si>
     <t>Постановка задач</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +140,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +156,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -222,6 +237,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -283,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,10 +339,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,7 +373,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -526,14 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
@@ -547,7 +569,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="45" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -571,13 +593,11 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B2" s="14"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -593,13 +613,11 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="B3" s="14"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -615,11 +633,11 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="11"/>
@@ -635,11 +653,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -655,11 +673,11 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -675,13 +693,11 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B7" s="14"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -697,11 +713,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -717,11 +733,11 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -739,11 +755,11 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -759,11 +775,11 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -779,13 +795,11 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="B12" s="14"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -801,11 +815,11 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -821,13 +835,11 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -843,13 +855,11 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -865,11 +875,11 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -885,11 +895,11 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="12"/>
@@ -905,13 +915,11 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -927,11 +935,11 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="12"/>
@@ -947,11 +955,11 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -967,11 +975,11 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -987,11 +995,11 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1007,11 +1015,11 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1027,11 +1035,11 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1047,13 +1055,11 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1079,12 +1085,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1092,12 +1098,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -598,8 +598,8 @@
         <v>6</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -618,8 +618,8 @@
         <v>5</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -638,8 +638,8 @@
         <v>4</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="11"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -658,8 +658,8 @@
         <v>3</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -678,8 +678,8 @@
         <v>2</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -698,8 +698,8 @@
         <v>1</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -718,8 +718,8 @@
         <v>0</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -738,8 +738,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -760,8 +760,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -780,8 +780,8 @@
         <v>22</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -800,8 +800,8 @@
         <v>23</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -820,8 +820,8 @@
         <v>9</v>
       </c>
       <c r="B13" s="16"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -840,8 +840,8 @@
         <v>10</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -860,8 +860,8 @@
         <v>11</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -880,8 +880,8 @@
         <v>12</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -900,8 +900,8 @@
         <v>13</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="12"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -920,8 +920,8 @@
         <v>21</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -940,8 +940,8 @@
         <v>14</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="12"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -960,8 +960,8 @@
         <v>15</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -980,8 +980,8 @@
         <v>16</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1000,8 +1000,8 @@
         <v>17</v>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1020,8 +1020,8 @@
         <v>18</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1040,8 +1040,8 @@
         <v>19</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1060,8 +1060,8 @@
         <v>20</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Денисюк Я.</t>
   </si>
@@ -103,13 +103,16 @@
   </si>
   <si>
     <t>Постановка задач</t>
+  </si>
+  <si>
+    <t>Тестирование #1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +138,7 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -205,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -229,12 +233,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +243,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -307,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +340,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,6 +375,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -548,20 +551,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
@@ -569,8 +572,8 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -582,7 +585,9 @@
       <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -593,14 +598,14 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -613,14 +618,14 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -633,14 +638,14 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -653,14 +658,14 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -673,14 +678,14 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -693,14 +698,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -713,14 +718,14 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -733,14 +738,14 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -755,14 +760,14 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -775,14 +780,14 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -795,14 +800,14 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -815,14 +820,14 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -835,14 +840,14 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -855,14 +860,14 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -875,14 +880,14 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -895,14 +900,14 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -915,14 +920,14 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -935,14 +940,14 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -955,14 +960,14 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -975,14 +980,14 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -995,14 +1000,14 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1015,14 +1020,14 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1035,14 +1040,14 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="7"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -1055,14 +1060,14 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1085,12 +1090,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1098,12 +1103,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Денисюк Я.</t>
   </si>
@@ -106,13 +106,19 @@
   </si>
   <si>
     <t>Тестирование #1</t>
+  </si>
+  <si>
+    <t>Разработка #1</t>
+  </si>
+  <si>
+    <t>Интерфейс #1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +145,15 @@
     <font>
       <sz val="14"/>
       <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -209,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -247,6 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -565,8 +583,8 @@
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
@@ -576,10 +594,10 @@
       <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -588,8 +606,12 @@
       <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H1" s="9"/>
       <c r="I1" s="8"/>
       <c r="J1" s="5"/>
@@ -603,11 +625,11 @@
         <v>6</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="12"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -623,11 +645,11 @@
         <v>5</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -644,10 +666,10 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -663,11 +685,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -683,11 +705,11 @@
         <v>2</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -703,11 +725,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -724,10 +746,10 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -746,8 +768,8 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -765,11 +787,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="10"/>
@@ -788,8 +810,8 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -808,8 +830,8 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -828,8 +850,8 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -848,8 +870,8 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -865,11 +887,11 @@
         <v>11</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -888,8 +910,8 @@
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -906,10 +928,10 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -928,8 +950,8 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -948,8 +970,8 @@
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -968,8 +990,8 @@
       <c r="C20" s="14"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -985,11 +1007,11 @@
         <v>16</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1005,11 +1027,11 @@
         <v>17</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1028,8 +1050,8 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1048,8 +1070,8 @@
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1065,11 +1087,11 @@
         <v>20</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
@@ -117,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,10 +358,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +392,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -569,14 +567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
@@ -590,7 +588,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="45" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
@@ -620,7 +618,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -640,7 +638,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -660,7 +658,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -680,13 +678,13 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -700,7 +698,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -720,7 +718,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +738,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -760,7 +758,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -782,7 +780,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -802,7 +800,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -822,14 +820,14 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="7"/>
@@ -842,7 +840,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -862,7 +860,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -882,7 +880,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -902,7 +900,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -922,7 +920,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -942,14 +940,14 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="7"/>
@@ -962,7 +960,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -982,7 +980,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +1000,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1020,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1040,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1062,13 +1060,13 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1082,13 +1080,13 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -1112,12 +1110,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1125,12 +1123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -625,7 +625,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="4"/>
@@ -665,7 +665,7 @@
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="4"/>
@@ -685,7 +685,7 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="4"/>
@@ -704,7 +704,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -828,7 +828,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -865,8 +865,8 @@
         <v>10</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -907,7 +907,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="7"/>
@@ -948,7 +948,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C831BD-F608-48AE-929C-7A0C9D4C7573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-40 2025" sheetId="1" r:id="rId1"/>
@@ -117,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,9 +285,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -324,7 +325,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -358,6 +359,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -392,9 +394,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,14 +570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
@@ -588,7 +591,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
@@ -598,10 +601,10 @@
       <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -618,14 +621,14 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="4"/>
@@ -638,7 +641,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -658,7 +661,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -678,13 +681,13 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -698,14 +701,14 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="7"/>
@@ -718,7 +721,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -738,7 +741,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -758,7 +761,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -780,7 +783,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -800,7 +803,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -820,14 +823,14 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="7"/>
@@ -840,7 +843,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -860,7 +863,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -880,7 +883,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -900,13 +903,13 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -920,7 +923,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -940,7 +943,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -960,7 +963,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -980,7 +983,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +1003,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1023,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1043,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1060,13 +1063,13 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1080,7 +1083,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1104,7 @@
       <c r="P25" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1110,12 +1113,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1123,12 +1126,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\testRepo\УП П-40 2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="П-40 2025" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>УП 01</t>
   </si>
@@ -131,19 +136,16 @@
   </si>
   <si>
     <t>Яфаев Д.</t>
+  </si>
+  <si>
+    <t>E2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +157,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -162,6 +165,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -170,173 +174,25 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFF00"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,7 +213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,198 +225,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -583,251 +253,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -881,61 +309,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1229,33 +613,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:14">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1287,9 +671,11 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1297,8 +683,8 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -1309,7 +695,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +715,7 @@
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1338,7 +724,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1349,7 +735,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1369,12 +755,12 @@
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -1389,7 +775,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1409,7 +795,7 @@
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1429,7 +815,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +837,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1471,7 +857,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1491,7 +877,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +897,7 @@
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1531,7 +917,7 @@
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +937,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +957,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>24</v>
       </c>
@@ -1591,7 +977,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
@@ -1611,7 +997,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -1620,7 +1006,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -1631,7 +1017,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1037,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1671,12 +1057,12 @@
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="F21" s="15"/>
@@ -1691,7 +1077,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>30</v>
       </c>
@@ -1711,14 +1097,16 @@
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -1731,7 +1119,7 @@
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>32</v>
       </c>
@@ -1751,13 +1139,13 @@
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -1777,40 +1165,31 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\testRepo\УП П-40 2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="П-40 2025" sheetId="1" r:id="rId1"/>
@@ -145,14 +150,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +163,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -171,6 +171,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -179,173 +180,25 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFF00"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,7 +219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,198 +231,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -592,251 +259,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -887,61 +312,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1235,35 +616,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5714285714286" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:14">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1313,8 +694,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1323,7 +704,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +724,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +744,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +764,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1392,7 +773,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="17"/>
@@ -1403,7 +784,7 @@
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +804,7 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +824,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +846,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1485,7 +866,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +886,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
@@ -1515,7 +896,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="11"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -1525,7 +906,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1545,7 +926,7 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
@@ -1565,7 +946,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -1573,7 +954,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1585,7 +966,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1605,7 +986,7 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1625,7 +1006,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1026,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1046,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
@@ -1685,7 +1066,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1705,7 +1086,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
@@ -1725,7 +1106,7 @@
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1747,7 +1128,7 @@
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
@@ -1767,7 +1148,7 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -1793,40 +1174,31 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\testRepo\УП П-40 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\P30\testRepo\УП П-40 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA05AF7-E94F-41F5-8E32-4203433D7D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-40 2025" sheetId="1" r:id="rId1"/>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,11 +622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -734,7 +735,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -896,7 +897,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="11"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -976,7 +977,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="11"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -996,7 +997,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1016,7 +1017,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="11"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
@@ -1169,7 +1170,7 @@
       <c r="P25" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1178,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1191,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\P30\testRepo\УП П-40 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\testRepo\УП П-40 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA05AF7-E94F-41F5-8E32-4203433D7D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="П-40 2025" sheetId="1" r:id="rId1"/>
@@ -151,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +198,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,12 +226,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -337,9 +330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,9 +370,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,7 +407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -622,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -697,8 +690,8 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -715,10 +708,10 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -735,10 +728,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -757,8 +750,8 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -775,10 +768,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -797,8 +790,8 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -817,8 +810,8 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
@@ -837,8 +830,8 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="9" t="s">
         <v>20</v>
       </c>
@@ -860,7 +853,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -879,8 +872,8 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -898,9 +891,9 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
@@ -919,8 +912,8 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -937,10 +930,10 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -957,10 +950,10 @@
       <c r="E15" s="11"/>
       <c r="F15" s="7"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -979,8 +972,8 @@
       <c r="G16" s="11"/>
       <c r="H16" s="8"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -999,8 +992,8 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -1017,10 +1010,10 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
@@ -1039,8 +1032,8 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1059,8 +1052,8 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -1077,10 +1070,10 @@
       <c r="E21" s="11"/>
       <c r="F21" s="13"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -1099,8 +1092,8 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -1121,8 +1114,8 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -1139,10 +1132,10 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -1161,8 +1154,8 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -1170,7 +1163,7 @@
       <c r="P25" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
+  <sortState ref="A2:A25">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1192,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\testRepo\УП П-40 2025\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -150,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,7 +367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,10 +399,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,7 +433,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -615,14 +608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
@@ -638,7 +631,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -698,7 +691,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -718,7 +711,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -729,7 +722,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="9"/>
@@ -738,7 +731,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -748,7 +741,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -758,7 +751,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -778,7 +771,7 @@
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -798,7 +791,7 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -818,7 +811,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -840,7 +833,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -860,7 +853,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -880,7 +873,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
@@ -900,7 +893,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -920,7 +913,7 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
@@ -940,7 +933,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -960,7 +953,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -980,7 +973,7 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1000,7 +993,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="10" t="s">
         <v>29</v>
       </c>
@@ -1020,7 +1013,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1040,7 +1033,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
@@ -1060,7 +1053,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1080,7 +1073,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
@@ -1100,7 +1093,7 @@
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1115,7 @@
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
@@ -1142,7 +1135,7 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -1172,12 +1165,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1185,12 +1178,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\P30\testRepo\УП П-40 2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7153A5-2531-4675-9472-64D122323E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="П-40 2025" sheetId="1" r:id="rId1"/>
@@ -145,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,7 +371,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -399,6 +405,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -433,9 +440,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,14 +616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
@@ -631,7 +639,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -691,7 +699,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -701,7 +709,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -711,7 +719,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -722,7 +730,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="9"/>
@@ -731,7 +739,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -751,7 +759,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -762,7 +770,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="17"/>
@@ -771,7 +779,7 @@
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -791,7 +799,7 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -811,7 +819,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -833,7 +841,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -853,7 +861,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -873,7 +881,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
@@ -884,7 +892,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="17"/>
@@ -893,7 +901,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -913,7 +921,7 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
@@ -933,7 +941,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -953,7 +961,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -963,8 +971,8 @@
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="17"/>
@@ -973,7 +981,7 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -993,7 +1001,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>29</v>
       </c>
@@ -1004,7 +1012,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="17"/>
@@ -1013,7 +1021,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1033,7 +1041,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
@@ -1053,7 +1061,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1063,7 +1071,7 @@
       <c r="E21" s="11"/>
       <c r="F21" s="13"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1073,7 +1081,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
@@ -1093,7 +1101,7 @@
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1115,7 +1123,7 @@
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
@@ -1135,7 +1143,7 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -1156,7 +1164,7 @@
       <c r="P25" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,12 +1173,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -1178,12 +1186,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\P30\testRepo\УП П-40 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Бойков\testRepo\УП П-40 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7153A5-2531-4675-9472-64D122323E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="П-40 2025" sheetId="1" r:id="rId1"/>
@@ -151,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,9 +330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,9 +370,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,7 +442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -770,7 +769,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="17"/>
@@ -1072,7 +1071,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="12"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="9"/>
@@ -1153,7 +1152,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -1164,7 +1163,7 @@
       <c r="P25" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
+  <sortState ref="A2:A25">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1173,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1186,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +193,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -257,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -269,9 +276,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +309,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -619,7 +632,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -660,507 +673,507 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A2:A25">

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>УП 01</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Яфаев Д.</t>
+  </si>
+  <si>
+    <t>Постановка задачи #3</t>
+  </si>
+  <si>
+    <t>Тестирование задачи #3</t>
+  </si>
+  <si>
+    <t>Разработка задачи #3</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,9 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -648,10 +654,12 @@
     <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="19" style="1" customWidth="1"/>
+    <col min="13" max="15" width="17.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,10 +681,10 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
@@ -685,13 +693,21 @@
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -703,15 +719,17 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -723,15 +741,17 @@
       <c r="G3" s="10"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -745,13 +765,15 @@
       <c r="I4" s="6"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -765,13 +787,15 @@
       <c r="I5" s="7"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -783,15 +807,17 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -805,13 +831,15 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -821,17 +849,19 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -845,15 +875,17 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -865,15 +897,17 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="17"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -887,13 +921,15 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -905,15 +941,17 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -927,13 +965,15 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
@@ -947,13 +987,15 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -967,13 +1009,15 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
@@ -987,13 +1031,15 @@
       <c r="I16" s="7"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1007,13 +1053,15 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
@@ -1025,15 +1073,17 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -1047,13 +1097,15 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
@@ -1067,13 +1119,15 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1085,15 +1139,17 @@
       <c r="G21" s="11"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>33</v>
       </c>
@@ -1107,13 +1163,15 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1129,13 +1187,15 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1149,13 +1209,15 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -1167,13 +1229,15 @@
       <c r="G25" s="10"/>
       <c r="H25" s="7"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:A25">

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>УП 01</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Разработка задачи #3</t>
+  </si>
+  <si>
+    <t>Интерфейс #3</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,6 +326,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -638,7 +641,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -681,16 +684,16 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="13" t="s">
@@ -702,7 +705,9 @@
       <c r="N1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="13"/>
+      <c r="O1" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
@@ -721,8 +726,8 @@
       <c r="I2" s="7"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="10"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="10"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -742,7 +747,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -763,7 +768,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -785,8 +790,8 @@
       <c r="G5" s="10"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -808,7 +813,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -849,7 +854,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -897,8 +902,8 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="10"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -1007,8 +1012,8 @@
       <c r="G15" s="10"/>
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -1029,8 +1034,8 @@
       <c r="G16" s="10"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -1051,8 +1056,8 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -1074,10 +1079,10 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="17"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="14"/>
@@ -1139,10 +1144,10 @@
       <c r="G21" s="11"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="10"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -728,8 +728,8 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="8"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
@@ -748,10 +748,10 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="15"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
@@ -773,7 +773,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="8"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
@@ -792,10 +792,10 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="8"/>
+      <c r="O5" s="10"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
@@ -814,10 +814,10 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="15"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
@@ -836,10 +836,10 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="8"/>
+      <c r="O7" s="10"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
@@ -861,7 +861,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="10"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="8"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
@@ -904,10 +904,10 @@
       <c r="I10" s="10"/>
       <c r="J10" s="19"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="10"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="15"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
@@ -929,7 +929,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="8"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
@@ -948,10 +948,10 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="10"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="15"/>
+      <c r="O12" s="10"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -973,7 +973,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="8"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
@@ -995,7 +995,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="15"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
@@ -1014,10 +1014,10 @@
       <c r="I15" s="10"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -1039,7 +1039,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="15"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
@@ -1057,11 +1057,11 @@
       <c r="H17" s="7"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="8"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -1079,11 +1079,11 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="10"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="15"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
@@ -1105,7 +1105,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="8"/>
+      <c r="O19" s="10"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
@@ -1127,7 +1127,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="15"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
@@ -1147,9 +1147,9 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="8"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="10"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
@@ -1171,7 +1171,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="15"/>
+      <c r="O22" s="10"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
@@ -1195,7 +1195,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="8"/>
+      <c r="O23" s="10"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
@@ -1217,7 +1217,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="15"/>
+      <c r="O24" s="10"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
@@ -1239,7 +1239,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="8"/>
+      <c r="O25" s="10"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>УП 01</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Интерфейс #2</t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>Андрееев А.</t>
   </si>
   <si>
@@ -157,6 +155,18 @@
   </si>
   <si>
     <t>Интерфейс #3</t>
+  </si>
+  <si>
+    <t>Постановка задачи №4</t>
+  </si>
+  <si>
+    <t>Тестирование задачи №4</t>
+  </si>
+  <si>
+    <t>Разработка #4</t>
+  </si>
+  <si>
+    <t>Интерфейс #4</t>
   </si>
 </sst>
 </file>
@@ -276,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,9 +305,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,12 +318,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,6 +328,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -638,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -659,10 +671,14 @@
     <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="1" customWidth="1"/>
     <col min="13" max="15" width="17.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,37 +700,46 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -728,40 +753,42 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -769,40 +796,42 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K4" s="9"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
+      <c r="M5" s="6"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -817,126 +846,132 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O6" s="6"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="18"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="18"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="19"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -948,127 +983,133 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="11"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>29</v>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1081,168 +1122,176 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M18" s="9"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A2:A25">

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -315,9 +314,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,6 +334,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +652,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -700,40 +699,40 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -755,10 +754,10 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="9"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="18"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -781,7 +780,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="18"/>
+      <c r="S3" s="17"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -799,12 +798,12 @@
       <c r="K4" s="9"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="18"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -827,7 +826,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="18"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -847,10 +846,10 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="9"/>
+      <c r="P6" s="6"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="18"/>
+      <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -873,7 +872,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="18"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -885,7 +884,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -896,7 +895,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="18"/>
+      <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -921,7 +920,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="18"/>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -935,16 +934,16 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="18"/>
+      <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -967,7 +966,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="18"/>
+      <c r="S11" s="17"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -984,13 +983,13 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="18"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1013,7 +1012,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="18"/>
+      <c r="S13" s="17"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -1036,7 +1035,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="18"/>
+      <c r="S14" s="17"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1059,7 +1058,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="18"/>
+      <c r="S15" s="17"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
@@ -1075,14 +1074,14 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="18"/>
+      <c r="S16" s="17"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1098,14 +1097,14 @@
       <c r="I17" s="9"/>
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="18"/>
+      <c r="S17" s="17"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
@@ -1122,13 +1121,13 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="13"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="6"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="18"/>
+      <c r="S18" s="17"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -1151,7 +1150,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="18"/>
+      <c r="S19" s="17"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -1174,7 +1173,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="18"/>
+      <c r="S20" s="17"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1193,11 +1192,11 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="18"/>
+      <c r="S21" s="17"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -1220,7 +1219,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="18"/>
+      <c r="S22" s="17"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -1245,7 +1244,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="18"/>
+      <c r="S23" s="17"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
@@ -1268,7 +1267,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="18"/>
+      <c r="S24" s="17"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1291,7 +1290,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="18"/>
+      <c r="S25" s="17"/>
     </row>
   </sheetData>
   <sortState ref="A2:A25">

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>УП 01</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Интерфейс #4</t>
+  </si>
+  <si>
+    <t>Постановка задачи №5</t>
+  </si>
+  <si>
+    <t>Тестирование #5</t>
+  </si>
+  <si>
+    <t>Разработка #5</t>
+  </si>
+  <si>
+    <t>Интерфейс #5</t>
   </si>
 </sst>
 </file>
@@ -285,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -337,6 +349,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -674,10 +689,14 @@
     <col min="17" max="17" width="19.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="21.5703125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="17.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,8 +754,32 @@
       <c r="S1" s="20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -758,8 +801,12 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="9"/>
       <c r="S2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -781,8 +828,12 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="17"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -800,12 +851,16 @@
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="9"/>
       <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -822,13 +877,17 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="9"/>
       <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+    </row>
+    <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -847,11 +906,15 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="9"/>
       <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -873,8 +936,12 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="17"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -896,8 +963,12 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -921,8 +992,12 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -944,8 +1019,12 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -963,12 +1042,16 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="17"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
@@ -990,8 +1073,12 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="17"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1013,8 +1100,12 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="17"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1036,8 +1127,12 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="17"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -1059,8 +1154,12 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="17"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
@@ -1082,8 +1181,12 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="17"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
@@ -1105,8 +1208,12 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="17"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
@@ -1124,12 +1231,16 @@
       <c r="M18" s="6"/>
       <c r="N18" s="12"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="9"/>
+      <c r="P18" s="7"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="17"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1151,8 +1262,12 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="17"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -1174,8 +1289,12 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="17"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1197,8 +1316,12 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="9"/>
       <c r="S21" s="17"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
@@ -1220,8 +1343,12 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="17"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
@@ -1245,8 +1372,12 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="17"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
@@ -1268,8 +1399,12 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="17"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -1291,6 +1426,10 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
     </row>
   </sheetData>
   <sortState ref="A2:A25">

--- a/УП П-40 2025/Состояние УП 01.xlsx
+++ b/УП П-40 2025/Состояние УП 01.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>УП 01</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Интерфейс #5</t>
+  </si>
+  <si>
+    <t>Демо</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -340,9 +343,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -351,6 +351,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -666,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -742,42 +747,44 @@
       <c r="O1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="T1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
+      <c r="X1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -798,9 +805,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="17"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="22"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
@@ -824,10 +831,10 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="17"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="22"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
@@ -853,12 +860,12 @@
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -880,9 +887,9 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
@@ -907,9 +914,9 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
@@ -1069,8 +1076,8 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="9"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="9"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -1204,7 +1211,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="17"/>
@@ -1231,8 +1238,8 @@
       <c r="M18" s="6"/>
       <c r="N18" s="12"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="9"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="9"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
@@ -1314,9 +1321,9 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="23"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
